--- a/ConceptMap-R5-SubstanceSourceMaterial-elements-for-R4.xlsx
+++ b/ConceptMap-R5-SubstanceSourceMaterial-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.5535176-06:00</t>
+    <t>2026-02-09T22:05:44.2731879-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,9 +255,6 @@
     <t>fractionDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:fractionDescription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>fraction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:fractionDescription:fraction</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:fraction</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t>materialType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:fractionDescription:materialType</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:materialType</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>organism</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
     <t>family</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:family</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:family</t>
   </si>
   <si>
@@ -315,9 +300,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:genus</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:genus</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:species</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:species</t>
   </si>
   <si>
@@ -339,9 +318,6 @@
     <t>intraspecificType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:intraspecificType</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:intraspecificType</t>
   </si>
   <si>
@@ -351,9 +327,6 @@
     <t>intraspecificDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:intraspecificDescription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:intraspecificDescription</t>
   </si>
   <si>
@@ -363,9 +336,6 @@
     <t>author</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:author</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author</t>
   </si>
   <si>
@@ -375,9 +345,6 @@
     <t>authorType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:author:authorType</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:authorType</t>
   </si>
   <si>
@@ -387,9 +354,6 @@
     <t>authorDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:author:authorDescription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:authorDescription</t>
   </si>
   <si>
@@ -399,9 +363,6 @@
     <t>hybrid</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid</t>
   </si>
   <si>
@@ -411,9 +372,6 @@
     <t>maternalOrganismId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid:maternalOrganismId</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:maternalOrganismId</t>
   </si>
   <si>
@@ -423,9 +381,6 @@
     <t>maternalOrganismName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid:maternalOrganismName</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:maternalOrganismName</t>
   </si>
   <si>
@@ -435,9 +390,6 @@
     <t>paternalOrganismId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid:paternalOrganismId</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:paternalOrganismId</t>
   </si>
   <si>
@@ -447,9 +399,6 @@
     <t>paternalOrganismName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid:paternalOrganismName</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:paternalOrganismName</t>
   </si>
   <si>
@@ -459,9 +408,6 @@
     <t>hybridType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:hybrid:hybridType</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:hybridType</t>
   </si>
   <si>
@@ -471,9 +417,6 @@
     <t>organismGeneral</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:organismGeneral</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral</t>
   </si>
   <si>
@@ -483,9 +426,6 @@
     <t>kingdom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:organismGeneral:kingdom</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:kingdom</t>
   </si>
   <si>
@@ -495,9 +435,6 @@
     <t>phylum</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:organismGeneral:phylum</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:phylum</t>
   </si>
   <si>
@@ -507,9 +444,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:organismGeneral:class</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:class</t>
   </si>
   <si>
@@ -519,9 +453,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organism:organismGeneral:order</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:order</t>
   </si>
   <si>
@@ -531,9 +462,6 @@
     <t>partDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:partDescription</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription</t>
   </si>
   <si>
@@ -543,9 +471,6 @@
     <t>part</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:partDescription:part</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:part</t>
   </si>
   <si>
@@ -553,9 +478,6 @@
   </si>
   <si>
     <t>partLocation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:partDescription:partLocation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:partLocation</t>
@@ -815,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1076,666 +998,328 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E70" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-SubstanceSourceMaterial-elements-for-R4.xlsx
+++ b/ConceptMap-R5-SubstanceSourceMaterial-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2731879-06:00</t>
+    <t>2026-02-17T14:42:27.6084324-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>sourceMaterialClass</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:sourceMaterialClass</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialClass</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.sourceMaterialType</t>
@@ -174,7 +174,7 @@
     <t>sourceMaterialType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:sourceMaterialType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialType</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.sourceMaterialState</t>
@@ -183,7 +183,7 @@
     <t>sourceMaterialState</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:sourceMaterialState</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.sourceMaterialState</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organismId</t>
@@ -192,7 +192,7 @@
     <t>organismId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organismId</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organismId</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organismName</t>
@@ -201,7 +201,7 @@
     <t>organismName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:organismName</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organismName</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.parentSubstanceId</t>
@@ -210,7 +210,7 @@
     <t>parentSubstanceId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:parentSubstanceId</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.parentSubstanceId</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.parentSubstanceName</t>
@@ -219,7 +219,7 @@
     <t>parentSubstanceName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:parentSubstanceName</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.parentSubstanceName</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.countryOfOrigin</t>
@@ -228,7 +228,7 @@
     <t>countryOfOrigin</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:countryOfOrigin</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.countryOfOrigin</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.geographicalLocation</t>
@@ -237,7 +237,7 @@
     <t>geographicalLocation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:geographicalLocation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.geographicalLocation</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.developmentStage</t>
@@ -246,7 +246,7 @@
     <t>developmentStage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:developmentStage</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.developmentStage</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.fractionDescription</t>
@@ -264,7 +264,7 @@
     <t>fraction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:fraction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription.fraction</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.fractionDescription.materialType</t>
@@ -273,7 +273,7 @@
     <t>materialType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:materialType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.fractionDescription.materialType</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism</t>
@@ -291,7 +291,7 @@
     <t>family</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:family</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.family</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.genus</t>
@@ -300,7 +300,7 @@
     <t>genus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:genus</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.genus</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.species</t>
@@ -309,7 +309,7 @@
     <t>species</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:species</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.species</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.intraspecificType</t>
@@ -318,7 +318,7 @@
     <t>intraspecificType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:intraspecificType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.intraspecificType</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.intraspecificDescription</t>
@@ -327,7 +327,7 @@
     <t>intraspecificDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:intraspecificDescription</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.intraspecificDescription</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.author</t>
@@ -345,7 +345,7 @@
     <t>authorType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:authorType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author.authorType</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.author.authorDescription</t>
@@ -354,7 +354,7 @@
     <t>authorDescription</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:authorDescription</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.author.authorDescription</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.hybrid</t>
@@ -372,7 +372,7 @@
     <t>maternalOrganismId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:maternalOrganismId</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.maternalOrganismId</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.hybrid.maternalOrganismName</t>
@@ -381,7 +381,7 @@
     <t>maternalOrganismName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:maternalOrganismName</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.maternalOrganismName</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.hybrid.paternalOrganismId</t>
@@ -390,7 +390,7 @@
     <t>paternalOrganismId</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:paternalOrganismId</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.paternalOrganismId</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.hybrid.paternalOrganismName</t>
@@ -399,7 +399,7 @@
     <t>paternalOrganismName</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:paternalOrganismName</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.paternalOrganismName</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.hybrid.hybridType</t>
@@ -408,7 +408,7 @@
     <t>hybridType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:hybridType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.hybrid.hybridType</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.organismGeneral</t>
@@ -426,7 +426,7 @@
     <t>kingdom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:kingdom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.kingdom</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.organismGeneral.phylum</t>
@@ -435,7 +435,7 @@
     <t>phylum</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:phylum</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.phylum</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.organismGeneral.class</t>
@@ -444,7 +444,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:class</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.class</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.organism.organismGeneral.order</t>
@@ -453,7 +453,7 @@
     <t>order</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:order</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.organism.organismGeneral.order</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.partDescription</t>
@@ -471,7 +471,7 @@
     <t>part</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:part</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription.part</t>
   </si>
   <si>
     <t>SubstanceSourceMaterial.partDescription.partLocation</t>
@@ -480,7 +480,7 @@
     <t>partLocation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:partLocation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceSourceMaterial.partDescription.partLocation</t>
   </si>
 </sst>
 </file>
